--- a/1.基本設計書/3.画面レイアウト/1-3-1_レイアウト_ログイン画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-1_レイアウト_ログイン画面.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF2580-B73A-4EBB-8FA4-51A5AE74BD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB520B99-5190-4F37-8E5E-870CEF9608BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10455" yWindow="15" windowWidth="18345" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9780" yWindow="255" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="画面レイアウト" sheetId="2" r:id="rId2"/>
     <sheet name="画面項目" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$3:$AY$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面項目!$A$3:$AZ$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AH$36</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -234,7 +239,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -270,7 +275,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -311,6 +316,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -619,6 +625,33 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -655,32 +688,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,27 +733,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,33 +748,96 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,93 +852,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1163,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1438,28 +1444,28 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="49"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="37"/>
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
@@ -1469,26 +1475,26 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="52"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="40"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -1498,26 +1504,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="52"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="40"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -1527,28 +1533,28 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="52"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="40"/>
     </row>
     <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -1558,26 +1564,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="52"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="40"/>
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -1587,26 +1593,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="55"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="43"/>
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -1820,28 +1826,28 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="35" t="s">
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="36"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="36"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="37"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="46"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1853,24 +1859,24 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="40"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="49"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1882,28 +1888,28 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="35" t="s">
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="37"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="46"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1915,24 +1921,24 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="40"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="49"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1944,28 +1950,28 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="35" t="s">
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="37"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="46"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1977,24 +1983,24 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="40"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="49"/>
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2006,28 +2012,28 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="41">
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="50">
         <v>44524</v>
       </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="42"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="43"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="52"/>
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2039,24 +2045,24 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="46"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="55"/>
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2068,28 +2074,28 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="35" t="s">
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="37"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="46"/>
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2101,24 +2107,24 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="40"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="49"/>
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2130,28 +2136,28 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="41">
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="50">
         <v>44508</v>
       </c>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="43"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="52"/>
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -2163,34 +2169,28 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="46"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
+      <c r="U34" s="54"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="55"/>
       <c r="AA34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -2199,6 +2199,12 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2210,8 +2216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5445F0C-19EB-4FA1-BFFA-F97262639311}">
   <dimension ref="A1:AZ46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2226,63 +2232,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59" t="str">
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="71" t="str">
         <f>表紙!O25</f>
         <v>ログイン画面</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="58" t="s">
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="60" t="s">
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="66" t="s">
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="67"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="75"/>
       <c r="AS1" s="76" t="s">
         <v>6</v>
       </c>
@@ -2294,67 +2300,67 @@
       <c r="AY1" s="76"/>
     </row>
     <row r="2" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="58" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="65">
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="73">
         <v>44508</v>
       </c>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="66" t="s">
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="56">
+      <c r="AP2" s="74"/>
+      <c r="AQ2" s="74"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="69">
         <v>44515</v>
       </c>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
     </row>
     <row r="3" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21"/>
@@ -2475,31 +2481,31 @@
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="61"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="61"/>
       <c r="AJ5" s="23"/>
       <c r="AK5" s="21"/>
       <c r="AL5" s="21"/>
@@ -2530,29 +2536,29 @@
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AG6" s="68"/>
-      <c r="AH6" s="68"/>
-      <c r="AI6" s="68"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
       <c r="AJ6" s="23"/>
       <c r="AK6" s="21"/>
       <c r="AL6" s="21"/>
@@ -2642,16 +2648,16 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
       <c r="R8" s="25"/>
-      <c r="S8" s="69" t="s">
+      <c r="S8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="69"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="72"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="65"/>
       <c r="AA8" s="26"/>
       <c r="AB8" s="26"/>
       <c r="AC8" s="26"/>
@@ -2696,22 +2702,22 @@
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="69" t="s">
+      <c r="R9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="75"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="68"/>
       <c r="AF9" s="21"/>
       <c r="AG9" s="27" t="s">
         <v>17</v>
@@ -2817,12 +2823,12 @@
       <c r="Z11" s="30"/>
       <c r="AA11" s="30"/>
       <c r="AB11" s="30"/>
-      <c r="AC11" s="61" t="s">
+      <c r="AC11" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="63"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="58"/>
       <c r="AG11" s="23"/>
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
@@ -2918,16 +2924,16 @@
       <c r="S13" s="23"/>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
-      <c r="V13" s="61" t="s">
+      <c r="V13" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="63"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="58"/>
       <c r="AD13" s="31"/>
       <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
@@ -4706,6 +4712,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AS1:AY1"/>
     <mergeCell ref="AC11:AF11"/>
     <mergeCell ref="V13:AC13"/>
     <mergeCell ref="L2:R2"/>
@@ -4716,16 +4732,6 @@
     <mergeCell ref="U8:Z8"/>
     <mergeCell ref="R9:T9"/>
     <mergeCell ref="U9:AE9"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AS1:AY1"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4740,8 +4746,8 @@
   </sheetPr>
   <dimension ref="A1:BF29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13:AZ13"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4750,137 +4756,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="58" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59" t="str">
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="71" t="str">
         <f>表紙!O25</f>
         <v>ログイン画面</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="58" t="s">
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="60" t="s">
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="66" t="s">
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="74"/>
+      <c r="AU1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
     </row>
     <row r="2" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="58" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="58" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="65">
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="73">
         <v>44511</v>
       </c>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="66" t="s">
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="72"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="72"/>
+      <c r="AQ2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="65">
+      <c r="AR2" s="74"/>
+      <c r="AS2" s="74"/>
+      <c r="AT2" s="74"/>
+      <c r="AU2" s="73">
         <v>44524</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="60"/>
-      <c r="AZ2" s="60"/>
+      <c r="AV2" s="72"/>
+      <c r="AW2" s="72"/>
+      <c r="AX2" s="72"/>
+      <c r="AY2" s="72"/>
+      <c r="AZ2" s="72"/>
     </row>
     <row r="3" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
@@ -4937,708 +4943,708 @@
       <c r="AZ3" s="5"/>
     </row>
     <row r="4" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81" t="s">
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81" t="s">
+      <c r="R4" s="110"/>
+      <c r="S4" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="81"/>
-      <c r="U4" s="93" t="s">
+      <c r="T4" s="110"/>
+      <c r="U4" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="94"/>
-      <c r="W4" s="94"/>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="94"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="94"/>
-      <c r="AB4" s="94"/>
-      <c r="AC4" s="94"/>
-      <c r="AD4" s="94"/>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="94"/>
-      <c r="AG4" s="94"/>
-      <c r="AH4" s="94"/>
-      <c r="AI4" s="94"/>
-      <c r="AJ4" s="94"/>
-      <c r="AK4" s="94"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="94"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="94"/>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="94"/>
-      <c r="AR4" s="94"/>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="94"/>
-      <c r="AU4" s="94"/>
-      <c r="AV4" s="94"/>
-      <c r="AW4" s="94"/>
-      <c r="AX4" s="94"/>
-      <c r="AY4" s="94"/>
-      <c r="AZ4" s="95"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="79"/>
     </row>
     <row r="5" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="81"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
-      <c r="AB5" s="97"/>
-      <c r="AC5" s="97"/>
-      <c r="AD5" s="97"/>
-      <c r="AE5" s="97"/>
-      <c r="AF5" s="97"/>
-      <c r="AG5" s="97"/>
-      <c r="AH5" s="97"/>
-      <c r="AI5" s="97"/>
-      <c r="AJ5" s="97"/>
-      <c r="AK5" s="97"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="97"/>
-      <c r="AN5" s="97"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="97"/>
-      <c r="AQ5" s="97"/>
-      <c r="AR5" s="97"/>
-      <c r="AS5" s="97"/>
-      <c r="AT5" s="97"/>
-      <c r="AU5" s="97"/>
-      <c r="AV5" s="97"/>
-      <c r="AW5" s="97"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="97"/>
-      <c r="AZ5" s="98"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="81"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="81"/>
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="81"/>
+      <c r="AU5" s="81"/>
+      <c r="AV5" s="81"/>
+      <c r="AW5" s="81"/>
+      <c r="AX5" s="81"/>
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="82"/>
     </row>
     <row r="6" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="82">
+      <c r="A6" s="101">
         <v>1</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="101"/>
+      <c r="C6" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="84" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="85" t="s">
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86" t="s">
+      <c r="R6" s="96"/>
+      <c r="S6" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="T6" s="86"/>
-      <c r="U6" s="99" t="s">
+      <c r="T6" s="96"/>
+      <c r="U6" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="100"/>
-      <c r="Y6" s="100"/>
-      <c r="Z6" s="100"/>
-      <c r="AA6" s="100"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
-      <c r="AF6" s="100"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="100"/>
-      <c r="AI6" s="100"/>
-      <c r="AJ6" s="100"/>
-      <c r="AK6" s="100"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="100"/>
-      <c r="AN6" s="100"/>
-      <c r="AO6" s="100"/>
-      <c r="AP6" s="100"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="100"/>
-      <c r="AS6" s="100"/>
-      <c r="AT6" s="100"/>
-      <c r="AU6" s="100"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="100"/>
-      <c r="AX6" s="100"/>
-      <c r="AY6" s="100"/>
-      <c r="AZ6" s="101"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="84"/>
+      <c r="AJ6" s="84"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="84"/>
+      <c r="AM6" s="84"/>
+      <c r="AN6" s="84"/>
+      <c r="AO6" s="84"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
+      <c r="AS6" s="84"/>
+      <c r="AT6" s="84"/>
+      <c r="AU6" s="84"/>
+      <c r="AV6" s="84"/>
+      <c r="AW6" s="84"/>
+      <c r="AX6" s="84"/>
+      <c r="AY6" s="84"/>
+      <c r="AZ6" s="85"/>
     </row>
     <row r="7" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="82">
+      <c r="A7" s="101">
         <v>2</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="101"/>
+      <c r="C7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="84" t="s">
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="85" t="s">
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86" t="s">
+      <c r="R7" s="96"/>
+      <c r="S7" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="T7" s="86"/>
-      <c r="U7" s="102" t="s">
+      <c r="T7" s="96"/>
+      <c r="U7" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="103"/>
-      <c r="W7" s="103"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="103"/>
-      <c r="AA7" s="103"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="103"/>
-      <c r="AE7" s="103"/>
-      <c r="AF7" s="103"/>
-      <c r="AG7" s="103"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="103"/>
-      <c r="AJ7" s="103"/>
-      <c r="AK7" s="103"/>
-      <c r="AL7" s="103"/>
-      <c r="AM7" s="103"/>
-      <c r="AN7" s="103"/>
-      <c r="AO7" s="103"/>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="103"/>
-      <c r="AR7" s="103"/>
-      <c r="AS7" s="103"/>
-      <c r="AT7" s="103"/>
-      <c r="AU7" s="103"/>
-      <c r="AV7" s="103"/>
-      <c r="AW7" s="103"/>
-      <c r="AX7" s="103"/>
-      <c r="AY7" s="103"/>
-      <c r="AZ7" s="104"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="87"/>
+      <c r="AX7" s="87"/>
+      <c r="AY7" s="87"/>
+      <c r="AZ7" s="88"/>
     </row>
     <row r="8" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="82">
+      <c r="A8" s="101">
         <v>3</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="83" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84" t="s">
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="86">
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="96">
         <v>6</v>
       </c>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86" t="s">
+      <c r="R8" s="96"/>
+      <c r="S8" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="86"/>
-      <c r="U8" s="105" t="s">
+      <c r="T8" s="96"/>
+      <c r="U8" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="106"/>
-      <c r="AO8" s="106"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="106"/>
-      <c r="AU8" s="106"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="106"/>
-      <c r="AY8" s="106"/>
-      <c r="AZ8" s="107"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="90"/>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="90"/>
+      <c r="AR8" s="90"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="91"/>
     </row>
     <row r="9" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="82">
+      <c r="A9" s="101">
         <v>4</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="83" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="84" t="s">
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="85" t="s">
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86" t="s">
+      <c r="R9" s="96"/>
+      <c r="S9" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="T9" s="86"/>
-      <c r="U9" s="108" t="s">
+      <c r="T9" s="96"/>
+      <c r="U9" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="109"/>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="109"/>
-      <c r="AN9" s="109"/>
-      <c r="AO9" s="109"/>
-      <c r="AP9" s="109"/>
-      <c r="AQ9" s="109"/>
-      <c r="AR9" s="109"/>
-      <c r="AS9" s="109"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="109"/>
-      <c r="AV9" s="109"/>
-      <c r="AW9" s="109"/>
-      <c r="AX9" s="109"/>
-      <c r="AY9" s="109"/>
-      <c r="AZ9" s="110"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="93"/>
+      <c r="AH9" s="93"/>
+      <c r="AI9" s="93"/>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="93"/>
+      <c r="AT9" s="93"/>
+      <c r="AU9" s="93"/>
+      <c r="AV9" s="93"/>
+      <c r="AW9" s="93"/>
+      <c r="AX9" s="93"/>
+      <c r="AY9" s="93"/>
+      <c r="AZ9" s="94"/>
     </row>
     <row r="10" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="82">
+      <c r="A10" s="101">
         <v>5</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="84" t="s">
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="86">
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="96">
         <v>10</v>
       </c>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86" t="s">
+      <c r="R10" s="96"/>
+      <c r="S10" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="86"/>
-      <c r="U10" s="105" t="s">
+      <c r="T10" s="96"/>
+      <c r="U10" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="106"/>
-      <c r="AD10" s="106"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="106"/>
-      <c r="AJ10" s="106"/>
-      <c r="AK10" s="106"/>
-      <c r="AL10" s="106"/>
-      <c r="AM10" s="106"/>
-      <c r="AN10" s="106"/>
-      <c r="AO10" s="106"/>
-      <c r="AP10" s="106"/>
-      <c r="AQ10" s="106"/>
-      <c r="AR10" s="106"/>
-      <c r="AS10" s="106"/>
-      <c r="AT10" s="106"/>
-      <c r="AU10" s="106"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="106"/>
-      <c r="AX10" s="106"/>
-      <c r="AY10" s="106"/>
-      <c r="AZ10" s="107"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="90"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="90"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="90"/>
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AP10" s="90"/>
+      <c r="AQ10" s="90"/>
+      <c r="AR10" s="90"/>
+      <c r="AS10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AU10" s="90"/>
+      <c r="AV10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="91"/>
     </row>
     <row r="11" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="82">
+      <c r="A11" s="101">
         <v>6</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84" t="s">
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="85" t="s">
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86" t="s">
+      <c r="R11" s="96"/>
+      <c r="S11" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="86"/>
-      <c r="U11" s="105" t="s">
+      <c r="T11" s="96"/>
+      <c r="U11" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="106"/>
-      <c r="AG11" s="106"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="106"/>
-      <c r="AZ11" s="107"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="90"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="90"/>
+      <c r="AL11" s="90"/>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AP11" s="90"/>
+      <c r="AQ11" s="90"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AU11" s="90"/>
+      <c r="AV11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="91"/>
     </row>
     <row r="12" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="82">
+      <c r="A12" s="101">
         <v>7</v>
       </c>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="85" t="s">
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86" t="s">
+      <c r="R12" s="96"/>
+      <c r="S12" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="86"/>
-      <c r="U12" s="105" t="s">
+      <c r="T12" s="96"/>
+      <c r="U12" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="106"/>
-      <c r="AE12" s="106"/>
-      <c r="AF12" s="106"/>
-      <c r="AG12" s="106"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="106"/>
-      <c r="AJ12" s="106"/>
-      <c r="AK12" s="106"/>
-      <c r="AL12" s="106"/>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="106"/>
-      <c r="AP12" s="106"/>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="106"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="106"/>
-      <c r="AU12" s="106"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="106"/>
-      <c r="AY12" s="106"/>
-      <c r="AZ12" s="107"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="90"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="90"/>
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AP12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AU12" s="90"/>
+      <c r="AV12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="91"/>
     </row>
     <row r="13" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="82">
+      <c r="A13" s="101">
         <v>8</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="83" t="s">
+      <c r="B13" s="101"/>
+      <c r="C13" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="84" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="85" t="s">
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86" t="s">
+      <c r="R13" s="96"/>
+      <c r="S13" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="86"/>
-      <c r="U13" s="105" t="s">
+      <c r="T13" s="96"/>
+      <c r="U13" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="106"/>
-      <c r="AJ13" s="106"/>
-      <c r="AK13" s="106"/>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="106"/>
-      <c r="AY13" s="106"/>
-      <c r="AZ13" s="107"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="90"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="90"/>
+      <c r="AM13" s="90"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="91"/>
     </row>
     <row r="14" spans="1:58" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="82">
+      <c r="A14" s="101">
         <v>9</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="78"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="78"/>
-      <c r="AP14" s="78"/>
-      <c r="AQ14" s="78"/>
-      <c r="AR14" s="78"/>
-      <c r="AS14" s="78"/>
-      <c r="AT14" s="78"/>
-      <c r="AU14" s="78"/>
-      <c r="AV14" s="78"/>
-      <c r="AW14" s="78"/>
-      <c r="AX14" s="78"/>
-      <c r="AY14" s="78"/>
-      <c r="AZ14" s="79"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
+      <c r="S14" s="97"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="107"/>
+      <c r="AH14" s="107"/>
+      <c r="AI14" s="107"/>
+      <c r="AJ14" s="107"/>
+      <c r="AK14" s="107"/>
+      <c r="AL14" s="107"/>
+      <c r="AM14" s="107"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="107"/>
+      <c r="AP14" s="107"/>
+      <c r="AQ14" s="107"/>
+      <c r="AR14" s="107"/>
+      <c r="AS14" s="107"/>
+      <c r="AT14" s="107"/>
+      <c r="AU14" s="107"/>
+      <c r="AV14" s="107"/>
+      <c r="AW14" s="107"/>
+      <c r="AX14" s="107"/>
+      <c r="AY14" s="107"/>
+      <c r="AZ14" s="108"/>
       <c r="BA14"/>
       <c r="BB14"/>
       <c r="BC14"/>
@@ -5647,58 +5653,58 @@
       <c r="BF14"/>
     </row>
     <row r="15" spans="1:58" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="78"/>
-      <c r="W15" s="78"/>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
-      <c r="AD15" s="78"/>
-      <c r="AE15" s="78"/>
-      <c r="AF15" s="78"/>
-      <c r="AG15" s="78"/>
-      <c r="AH15" s="78"/>
-      <c r="AI15" s="78"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="78"/>
-      <c r="AL15" s="78"/>
-      <c r="AM15" s="78"/>
-      <c r="AN15" s="78"/>
-      <c r="AO15" s="78"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
-      <c r="AS15" s="78"/>
-      <c r="AT15" s="78"/>
-      <c r="AU15" s="78"/>
-      <c r="AV15" s="78"/>
-      <c r="AW15" s="78"/>
-      <c r="AX15" s="78"/>
-      <c r="AY15" s="78"/>
-      <c r="AZ15" s="79"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="107"/>
+      <c r="AL15" s="107"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="107"/>
+      <c r="AQ15" s="107"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="107"/>
+      <c r="AV15" s="107"/>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="107"/>
+      <c r="AY15" s="107"/>
+      <c r="AZ15" s="108"/>
       <c r="BA15"/>
       <c r="BB15"/>
       <c r="BC15"/>
@@ -5787,10 +5793,10 @@
       <c r="R17" s="3"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
@@ -5841,22 +5847,22 @@
       <c r="R18" s="3"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="89"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="99"/>
+      <c r="AJ18" s="99"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
@@ -5895,22 +5901,22 @@
       <c r="R19" s="3"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="89"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="99"/>
+      <c r="AJ19" s="99"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
@@ -5956,15 +5962,15 @@
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="89"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="99"/>
+      <c r="AJ20" s="99"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
@@ -6010,15 +6016,15 @@
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
+      <c r="AB21" s="100"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="99"/>
+      <c r="AJ21" s="99"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
@@ -6064,15 +6070,15 @@
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="89"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="99"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="99"/>
+      <c r="AJ22" s="99"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
@@ -6118,15 +6124,15 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="99"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="99"/>
+      <c r="AJ23" s="99"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
@@ -6172,15 +6178,15 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="90"/>
-      <c r="AH24" s="90"/>
-      <c r="AI24" s="90"/>
-      <c r="AJ24" s="90"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
@@ -6226,15 +6232,15 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="88"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="88"/>
-      <c r="AH25" s="88"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="99"/>
+      <c r="AJ25" s="99"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
@@ -6280,15 +6286,15 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
+      <c r="AB26" s="99"/>
+      <c r="AC26" s="99"/>
+      <c r="AD26" s="99"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="99"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="99"/>
+      <c r="AJ26" s="99"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
@@ -6334,15 +6340,15 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="88"/>
-      <c r="AD27" s="88"/>
-      <c r="AE27" s="88"/>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="88"/>
-      <c r="AH27" s="88"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="88"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="99"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="99"/>
+      <c r="AJ27" s="99"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
@@ -6388,15 +6394,15 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="88"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="88"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="88"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="88"/>
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="99"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="99"/>
+      <c r="AJ28" s="99"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
@@ -6442,15 +6448,15 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="99"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
@@ -6470,56 +6476,53 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="U4:AZ5"/>
-    <mergeCell ref="U6:AZ6"/>
-    <mergeCell ref="U7:AZ7"/>
-    <mergeCell ref="U8:AZ8"/>
-    <mergeCell ref="U9:AZ9"/>
-    <mergeCell ref="U10:AZ10"/>
-    <mergeCell ref="U11:AZ11"/>
-    <mergeCell ref="U12:AZ12"/>
-    <mergeCell ref="U13:AZ13"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AB24:AE24"/>
-    <mergeCell ref="AF24:AH24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AF25:AH25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AB22:AE22"/>
-    <mergeCell ref="AF22:AH22"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AB23:AE23"/>
-    <mergeCell ref="AF23:AH23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF26:AH26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AH27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="U14:AZ14"/>
+    <mergeCell ref="U15:AZ15"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:L5"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="S4:T5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="AU1:AZ1"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AJ2"/>
+    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AJ1"/>
+    <mergeCell ref="AK1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:P12"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="M15:P15"/>
@@ -6544,53 +6547,56 @@
     <mergeCell ref="U17:V17"/>
     <mergeCell ref="U18:V18"/>
     <mergeCell ref="U19:V19"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="AU1:AZ1"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AJ2"/>
-    <mergeCell ref="AK2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AK1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="U14:AZ14"/>
-    <mergeCell ref="U15:AZ15"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:L5"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="S4:T5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF26:AH26"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AH27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AB24:AE24"/>
+    <mergeCell ref="AF24:AH24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AF25:AH25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF22:AH22"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AB23:AE23"/>
+    <mergeCell ref="AF23:AH23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U4:AZ5"/>
+    <mergeCell ref="U6:AZ6"/>
+    <mergeCell ref="U7:AZ7"/>
+    <mergeCell ref="U8:AZ8"/>
+    <mergeCell ref="U9:AZ9"/>
+    <mergeCell ref="U10:AZ10"/>
+    <mergeCell ref="U11:AZ11"/>
+    <mergeCell ref="U12:AZ12"/>
+    <mergeCell ref="U13:AZ13"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.基本設計書/3.画面レイアウト/1-3-1_レイアウト_ログイン画面.xlsx
+++ b/1.基本設計書/3.画面レイアウト/1-3-1_レイアウト_ログイン画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\1.基本設計書\3.画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447F533C-5698-4D84-8727-E4974982704F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660E3E84-21BC-4913-AF6F-1A804B360C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="0" windowWidth="18210" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10770" yWindow="30" windowWidth="16680" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>ログイン画面</t>
   </si>
@@ -75,24 +75,6 @@
   </si>
   <si>
     <t>修正日</t>
-  </si>
-  <si>
-    <t>会員情報確認 編集プログラム</t>
-  </si>
-  <si>
-    <t>ID :</t>
-  </si>
-  <si>
-    <t>Pass :</t>
-  </si>
-  <si>
-    <t>エラーメッセージを表示</t>
-  </si>
-  <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>会員でない方はこちら</t>
   </si>
   <si>
     <t>画面レイアウト</t>
@@ -226,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -330,30 +312,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -385,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -448,6 +406,48 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,103 +475,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -589,6 +526,505 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>98845</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>158569</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53915</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B74EEEF-0A3F-4EF7-8AB8-28DA748E1B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1976887" y="835684"/>
+          <a:ext cx="4867154" cy="1698325"/>
+          <a:chOff x="2156604" y="826698"/>
+          <a:chExt cx="4867154" cy="1698325"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AA812C-73EE-4CB0-9D63-6B93439039DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3495495" y="1446722"/>
+            <a:ext cx="1033372" cy="206674"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{121F9B63-F95C-4BAE-9CA5-041DE022A12E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3495494" y="1653395"/>
+            <a:ext cx="1878044" cy="206676"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="テキスト ボックス 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68BE440-9F79-43E5-B336-43CA22A62478}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2156604" y="826698"/>
+            <a:ext cx="4117346" cy="492443"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>会員情報確認 編集プログラム</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F108F66-7A9D-420F-9CAA-E8D7262D7A37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3136063" y="1410779"/>
+            <a:ext cx="425437" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> : </a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3A8869-FD2C-4B3F-A8A4-3F5347BB040E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4690614" y="1931959"/>
+            <a:ext cx="682925" cy="206674"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ログイン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4237F949-0F61-46D2-BF61-1D75FA821DE7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3747099" y="2318348"/>
+            <a:ext cx="1365849" cy="206675"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>会員でない方はこちら</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="テキスト ボックス 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2675C3E4-3CBB-44CD-8FE7-211136425354}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2983303" y="1617453"/>
+            <a:ext cx="583558" cy="275717"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Pass : </a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="テキスト ボックス 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A985E7-C6F1-4C59-884E-C7F9CD5A00D9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5472381" y="1635424"/>
+            <a:ext cx="1551377" cy="259045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>エラーメッセージを表示</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +1327,7 @@
   <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1165,28 +1601,28 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="24"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="38"/>
     </row>
     <row r="11" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
@@ -1196,26 +1632,26 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="27"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="40"/>
+      <c r="AA11" s="41"/>
     </row>
     <row r="12" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -1225,26 +1661,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="27"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="41"/>
     </row>
     <row r="13" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -1254,28 +1690,28 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="25" t="s">
-        <v>19</v>
+      <c r="H13" s="39" t="s">
+        <v>13</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="27"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40"/>
+      <c r="AA13" s="41"/>
     </row>
     <row r="14" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -1285,26 +1721,26 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="27"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="41"/>
     </row>
     <row r="15" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -1314,26 +1750,26 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="30"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="44"/>
     </row>
     <row r="16" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -1547,28 +1983,28 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="31" t="s">
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1580,24 +2016,24 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="36"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="29"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1609,28 +2045,28 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="31" t="s">
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="26"/>
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1642,24 +2078,24 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="36"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="29"/>
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1671,28 +2107,28 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="31" t="s">
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="33"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="26"/>
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1704,24 +2140,24 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="36"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="29"/>
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1733,28 +2169,28 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="31" t="s">
+      <c r="I29" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="37">
-        <v>44525</v>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="30">
+        <v>44526</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="39"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="32"/>
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1766,24 +2202,24 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="42"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="35"/>
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1795,28 +2231,28 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="31" t="s">
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="33"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="26"/>
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1828,24 +2264,24 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="36"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="29"/>
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1857,28 +2293,28 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="31" t="s">
+      <c r="I33" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="37">
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="30">
         <v>44508</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="39"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="32"/>
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1890,28 +2326,34 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="42"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="34"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="35"/>
       <c r="AA34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -1920,12 +2362,6 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1938,7 +2374,7 @@
   <dimension ref="A1:AZ46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="106" zoomScaleNormal="100" zoomScaleSheetLayoutView="106" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1953,135 +2389,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="46" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="58" t="str">
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="48" t="str">
         <f>表紙!O25</f>
         <v>ログイン画面</v>
       </c>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="46" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="59" t="s">
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="61" t="s">
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="61"/>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="63" t="s">
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
     </row>
     <row r="2" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="46" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="46" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="60">
+      <c r="AF2" s="47"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="50">
         <v>44508</v>
       </c>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="59"/>
-      <c r="AM2" s="59"/>
-      <c r="AN2" s="59"/>
-      <c r="AO2" s="61" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="56">
-        <v>44525</v>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="45">
+        <v>44526</v>
       </c>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="45"/>
+      <c r="AY2" s="45"/>
     </row>
     <row r="3" spans="1:51" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
@@ -2202,31 +2638,29 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
       <c r="AJ5" s="10"/>
       <c r="AK5" s="8"/>
       <c r="AL5" s="8"/>
@@ -2257,29 +2691,29 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
-      <c r="AF6" s="48"/>
-      <c r="AG6" s="48"/>
-      <c r="AH6" s="48"/>
-      <c r="AI6" s="48"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
       <c r="AJ6" s="10"/>
       <c r="AK6" s="8"/>
       <c r="AL6" s="8"/>
@@ -2369,16 +2803,14 @@
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" s="49"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="52"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
       <c r="AA8" s="13"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="13"/>
@@ -2423,26 +2855,22 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
-      <c r="R9" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
       <c r="AE9" s="55"/>
       <c r="AF9" s="8"/>
-      <c r="AG9" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="AG9" s="14"/>
       <c r="AH9" s="10"/>
       <c r="AI9" s="10"/>
       <c r="AJ9" s="10"/>
@@ -2544,12 +2972,10 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="17"/>
-      <c r="AC11" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="45"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10"/>
       <c r="AI11" s="10"/>
@@ -2645,16 +3071,14 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="45"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
       <c r="AD13" s="18"/>
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
@@ -4432,7 +4856,12 @@
       <c r="AZ46" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="15">
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="V13:AC13"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
     <mergeCell ref="AS2:AY2"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="L1:R1"/>
@@ -4443,19 +4872,10 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AS1:AY1"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="V13:AC13"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="M5:AI6"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:Z8"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:AE9"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>